--- a/homework3.xlsx
+++ b/homework3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79111\Desktop\homeworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79111\Documents\GitHub\MyFirst_REPO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="242">
   <si>
     <t>1. Поисковый запрос отобразился в поисковой строке</t>
   </si>
@@ -749,13 +749,19 @@
   </si>
   <si>
     <t>6. Отзывы на товар отсортированы по оценке начиная с самой высокой</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>pas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,6 +792,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -944,7 +957,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1020,6 +1033,60 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1029,65 +1096,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,8 +1394,8 @@
   <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B128" sqref="A128:XFD128"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1390,34 +1409,34 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="37" t="s">
         <v>215</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="43" t="s">
+      <c r="D1" s="36"/>
+      <c r="E1" s="41" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="41" t="s">
+    <row r="2" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="30" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="E2" s="41"/>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
         <v>218</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1429,10 +1448,13 @@
       <c r="D3" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="47"/>
-    </row>
-    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="50" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="49"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1442,10 +1464,13 @@
       <c r="D4" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:5" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="177.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="49"/>
       <c r="B5" s="10" t="s">
         <v>223</v>
       </c>
@@ -1455,11 +1480,14 @@
       <c r="D5" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="27" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="45" t="s">
         <v>226</v>
       </c>
       <c r="C6" s="11" t="s">
@@ -1469,10 +1497,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="29"/>
+      <c r="F6" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="49"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
@@ -1480,10 +1511,11 @@
         <v>4</v>
       </c>
       <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="29"/>
+      <c r="F7" s="51"/>
+    </row>
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="49"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
@@ -1491,10 +1523,11 @@
         <v>17</v>
       </c>
       <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="28"/>
+      <c r="F8" s="51"/>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="49"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="14" t="s">
         <v>7</v>
       </c>
@@ -1502,10 +1535,11 @@
         <v>18</v>
       </c>
       <c r="E9" s="13"/>
-    </row>
-    <row r="10" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="27" t="s">
+      <c r="F9" s="51"/>
+    </row>
+    <row r="10" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="49"/>
+      <c r="B10" s="45" t="s">
         <v>30</v>
       </c>
       <c r="C10" s="11" t="s">
@@ -1515,10 +1549,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="29"/>
+      <c r="F10" s="51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="9" t="s">
         <v>1</v>
       </c>
@@ -1527,9 +1564,9 @@
       </c>
       <c r="E11" s="13"/>
     </row>
-    <row r="12" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="28"/>
+    <row r="12" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="49"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="14" t="s">
         <v>47</v>
       </c>
@@ -1538,9 +1575,9 @@
       </c>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="49"/>
+      <c r="B13" s="45" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1550,10 +1587,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="12"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="29"/>
+      <c r="F13" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="49"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="9" t="s">
         <v>1</v>
       </c>
@@ -1561,10 +1601,11 @@
         <v>4</v>
       </c>
       <c r="E14" s="13"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="29"/>
+      <c r="F14" s="51"/>
+    </row>
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="49"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="9" t="s">
         <v>46</v>
       </c>
@@ -1572,10 +1613,11 @@
         <v>32</v>
       </c>
       <c r="E15" s="13"/>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="29"/>
+      <c r="F15" s="51"/>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="49"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="9" t="s">
         <v>33</v>
       </c>
@@ -1583,10 +1625,11 @@
         <v>35</v>
       </c>
       <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="29"/>
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="49"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="16" t="s">
         <v>36</v>
       </c>
@@ -1594,10 +1637,11 @@
         <v>37</v>
       </c>
       <c r="E17" s="13"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="28"/>
+      <c r="F17" s="51"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="49"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="17" t="s">
         <v>38</v>
       </c>
@@ -1605,10 +1649,11 @@
         <v>39</v>
       </c>
       <c r="E18" s="13"/>
-    </row>
-    <row r="19" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="27" t="s">
+      <c r="F18" s="51"/>
+    </row>
+    <row r="19" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="49"/>
+      <c r="B19" s="45" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="11" t="s">
@@ -1618,10 +1663,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="29"/>
+      <c r="F19" s="51" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="49"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="9" t="s">
         <v>1</v>
       </c>
@@ -1630,9 +1678,9 @@
       </c>
       <c r="E20" s="13"/>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="29"/>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="49"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="9" t="s">
         <v>46</v>
       </c>
@@ -1641,9 +1689,9 @@
       </c>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="29"/>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="49"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="9" t="s">
         <v>33</v>
       </c>
@@ -1652,9 +1700,9 @@
       </c>
       <c r="E22" s="13"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="29"/>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="49"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="16" t="s">
         <v>41</v>
       </c>
@@ -1663,9 +1711,9 @@
       </c>
       <c r="E23" s="13"/>
     </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="28"/>
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="49"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="17" t="s">
         <v>38</v>
       </c>
@@ -1674,9 +1722,9 @@
       </c>
       <c r="E24" s="13"/>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="27" t="s">
+    <row r="25" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="49"/>
+      <c r="B25" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="11" t="s">
@@ -1687,9 +1735,9 @@
       </c>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="29"/>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="49"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="9" t="s">
         <v>1</v>
       </c>
@@ -1698,9 +1746,9 @@
       </c>
       <c r="E26" s="13"/>
     </row>
-    <row r="27" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="29"/>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="49"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="9" t="s">
         <v>46</v>
       </c>
@@ -1709,9 +1757,9 @@
       </c>
       <c r="E27" s="13"/>
     </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="29"/>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="49"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="9" t="s">
         <v>33</v>
       </c>
@@ -1720,9 +1768,9 @@
       </c>
       <c r="E28" s="13"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="29"/>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="49"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="16" t="s">
         <v>43</v>
       </c>
@@ -1731,9 +1779,9 @@
       </c>
       <c r="E29" s="13"/>
     </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="28"/>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="49"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="17" t="s">
         <v>38</v>
       </c>
@@ -1742,9 +1790,9 @@
       </c>
       <c r="E30" s="13"/>
     </row>
-    <row r="31" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="27" t="s">
+    <row r="31" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="49"/>
+      <c r="B31" s="45" t="s">
         <v>48</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -1755,9 +1803,9 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="29"/>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="49"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="9" t="s">
         <v>1</v>
       </c>
@@ -1767,8 +1815,8 @@
       <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="14" t="s">
         <v>49</v>
       </c>
@@ -1778,8 +1826,8 @@
       <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="49"/>
+      <c r="B34" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -1791,8 +1839,8 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="29"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="13" t="s">
         <v>1</v>
       </c>
@@ -1802,8 +1850,8 @@
       <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="15" t="s">
         <v>52</v>
       </c>
@@ -1813,8 +1861,8 @@
       <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="27" t="s">
+      <c r="A37" s="49"/>
+      <c r="B37" s="45" t="s">
         <v>60</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -1826,8 +1874,8 @@
       <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="29"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="13" t="s">
         <v>1</v>
       </c>
@@ -1837,8 +1885,8 @@
       <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="29"/>
+      <c r="A39" s="49"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="13" t="s">
         <v>54</v>
       </c>
@@ -1848,8 +1896,8 @@
       <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="29"/>
+      <c r="A40" s="49"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="13" t="s">
         <v>56</v>
       </c>
@@ -1859,8 +1907,8 @@
       <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="49"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="15" t="s">
         <v>57</v>
       </c>
@@ -1870,8 +1918,8 @@
       <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="27" t="s">
+      <c r="A42" s="49"/>
+      <c r="B42" s="45" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="12" t="s">
@@ -1883,8 +1931,8 @@
       <c r="E42" s="12"/>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="29"/>
+      <c r="A43" s="49"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="13" t="s">
         <v>1</v>
       </c>
@@ -1894,8 +1942,8 @@
       <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="28"/>
+      <c r="A44" s="49"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="15" t="s">
         <v>62</v>
       </c>
@@ -1905,8 +1953,8 @@
       <c r="E44" s="13"/>
     </row>
     <row r="45" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="27" t="s">
+      <c r="A45" s="49"/>
+      <c r="B45" s="45" t="s">
         <v>66</v>
       </c>
       <c r="C45" s="12" t="s">
@@ -1918,8 +1966,8 @@
       <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="13" t="s">
         <v>1</v>
       </c>
@@ -1929,8 +1977,8 @@
       <c r="E46" s="13"/>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="28"/>
+      <c r="A47" s="49"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="15" t="s">
         <v>64</v>
       </c>
@@ -1940,8 +1988,8 @@
       <c r="E47" s="13"/>
     </row>
     <row r="48" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="27" t="s">
+      <c r="A48" s="49"/>
+      <c r="B48" s="45" t="s">
         <v>76</v>
       </c>
       <c r="C48" s="12" t="s">
@@ -1953,8 +2001,8 @@
       <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="49"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="13" t="s">
         <v>1</v>
       </c>
@@ -1964,8 +2012,8 @@
       <c r="E49" s="13"/>
     </row>
     <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="28"/>
+      <c r="A50" s="49"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="15" t="s">
         <v>77</v>
       </c>
@@ -1975,8 +2023,8 @@
       <c r="E50" s="13"/>
     </row>
     <row r="51" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34"/>
-      <c r="B51" s="27" t="s">
+      <c r="A51" s="49"/>
+      <c r="B51" s="45" t="s">
         <v>79</v>
       </c>
       <c r="C51" s="12" t="s">
@@ -1988,8 +2036,8 @@
       <c r="E51" s="12"/>
     </row>
     <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="49"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="13" t="s">
         <v>1</v>
       </c>
@@ -1999,8 +2047,8 @@
       <c r="E52" s="13"/>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="28"/>
+      <c r="A53" s="49"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="15" t="s">
         <v>80</v>
       </c>
@@ -2010,8 +2058,8 @@
       <c r="E53" s="13"/>
     </row>
     <row r="54" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="27" t="s">
+      <c r="A54" s="49"/>
+      <c r="B54" s="45" t="s">
         <v>82</v>
       </c>
       <c r="C54" s="12" t="s">
@@ -2023,8 +2071,8 @@
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="49"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="13" t="s">
         <v>1</v>
       </c>
@@ -2034,8 +2082,8 @@
       <c r="E55" s="13"/>
     </row>
     <row r="56" spans="1:6" s="20" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="49"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="13" t="s">
         <v>83</v>
       </c>
@@ -2045,10 +2093,10 @@
       <c r="E56" s="13"/>
     </row>
     <row r="57" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="42" t="s">
         <v>227</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="45" t="s">
         <v>112</v>
       </c>
       <c r="C57" s="23" t="s">
@@ -2061,8 +2109,8 @@
       <c r="F57" s="22"/>
     </row>
     <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="31"/>
-      <c r="B58" s="28"/>
+      <c r="A58" s="43"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="19" t="s">
         <v>115</v>
       </c>
@@ -2073,8 +2121,8 @@
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="31"/>
-      <c r="B59" s="27" t="s">
+      <c r="A59" s="43"/>
+      <c r="B59" s="45" t="s">
         <v>117</v>
       </c>
       <c r="C59" s="24" t="s">
@@ -2086,8 +2134,8 @@
       <c r="E59" s="12"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="31"/>
-      <c r="B60" s="29"/>
+      <c r="A60" s="43"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="25" t="s">
         <v>119</v>
       </c>
@@ -2097,8 +2145,8 @@
       <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="31"/>
-      <c r="B61" s="28"/>
+      <c r="A61" s="43"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="26" t="s">
         <v>121</v>
       </c>
@@ -2108,8 +2156,8 @@
       <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="31"/>
-      <c r="B62" s="27" t="s">
+      <c r="A62" s="43"/>
+      <c r="B62" s="45" t="s">
         <v>118</v>
       </c>
       <c r="C62" s="23" t="s">
@@ -2121,8 +2169,8 @@
       <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="31"/>
-      <c r="B63" s="29"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="47"/>
       <c r="C63" s="18" t="s">
         <v>119</v>
       </c>
@@ -2132,8 +2180,8 @@
       <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="31"/>
-      <c r="B64" s="28"/>
+      <c r="A64" s="43"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="19" t="s">
         <v>123</v>
       </c>
@@ -2143,7 +2191,7 @@
       <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
+      <c r="A65" s="43"/>
       <c r="B65" s="12" t="s">
         <v>125</v>
       </c>
@@ -2156,7 +2204,7 @@
       <c r="E65" s="12"/>
     </row>
     <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
+      <c r="A66" s="43"/>
       <c r="B66" s="15"/>
       <c r="C66" s="26" t="s">
         <v>129</v>
@@ -2167,8 +2215,8 @@
       <c r="E66" s="13"/>
     </row>
     <row r="67" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="27" t="s">
+      <c r="A67" s="43"/>
+      <c r="B67" s="45" t="s">
         <v>131</v>
       </c>
       <c r="C67" s="24" t="s">
@@ -2180,8 +2228,8 @@
       <c r="E67" s="12"/>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="29"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="47"/>
       <c r="C68" s="25" t="s">
         <v>129</v>
       </c>
@@ -2191,8 +2239,8 @@
       <c r="E68" s="13"/>
     </row>
     <row r="69" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="28"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="26" t="s">
         <v>132</v>
       </c>
@@ -2202,8 +2250,8 @@
       <c r="E69" s="13"/>
     </row>
     <row r="70" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="27" t="s">
+      <c r="A70" s="43"/>
+      <c r="B70" s="45" t="s">
         <v>134</v>
       </c>
       <c r="C70" s="23" t="s">
@@ -2215,8 +2263,8 @@
       <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="28"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="26" t="s">
         <v>135</v>
       </c>
@@ -2226,8 +2274,8 @@
       <c r="E71" s="13"/>
     </row>
     <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="27" t="s">
+      <c r="A72" s="43"/>
+      <c r="B72" s="45" t="s">
         <v>137</v>
       </c>
       <c r="C72" s="23" t="s">
@@ -2239,8 +2287,8 @@
       <c r="E72" s="12"/>
     </row>
     <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="29"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="18" t="s">
         <v>135</v>
       </c>
@@ -2250,8 +2298,8 @@
       <c r="E73" s="13"/>
     </row>
     <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="28"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="19" t="s">
         <v>138</v>
       </c>
@@ -2261,8 +2309,8 @@
       <c r="E74" s="13"/>
     </row>
     <row r="75" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="27" t="s">
+      <c r="A75" s="43"/>
+      <c r="B75" s="45" t="s">
         <v>140</v>
       </c>
       <c r="C75" s="23" t="s">
@@ -2274,8 +2322,8 @@
       <c r="E75" s="12"/>
     </row>
     <row r="76" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="28"/>
+      <c r="A76" s="43"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="26" t="s">
         <v>141</v>
       </c>
@@ -2285,8 +2333,8 @@
       <c r="E76" s="13"/>
     </row>
     <row r="77" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="27" t="s">
+      <c r="A77" s="43"/>
+      <c r="B77" s="45" t="s">
         <v>143</v>
       </c>
       <c r="C77" s="23" t="s">
@@ -2298,8 +2346,8 @@
       <c r="E77" s="12"/>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="28"/>
+      <c r="A78" s="43"/>
+      <c r="B78" s="46"/>
       <c r="C78" s="19" t="s">
         <v>144</v>
       </c>
@@ -2309,7 +2357,7 @@
       <c r="E78" s="13"/>
     </row>
     <row r="79" spans="1:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="12" t="s">
         <v>168</v>
       </c>
@@ -2322,7 +2370,7 @@
       <c r="E79" s="12"/>
     </row>
     <row r="80" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="13"/>
       <c r="C80" s="18" t="s">
         <v>160</v>
@@ -2333,9 +2381,9 @@
       <c r="E80" s="13"/>
     </row>
     <row r="81" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="13"/>
-      <c r="C81" s="35" t="s">
+      <c r="C81" s="27" t="s">
         <v>163</v>
       </c>
       <c r="D81" s="13" t="s">
@@ -2344,9 +2392,9 @@
       <c r="E81" s="13"/>
     </row>
     <row r="82" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="13"/>
-      <c r="C82" s="35" t="s">
+      <c r="C82" s="27" t="s">
         <v>169</v>
       </c>
       <c r="D82" s="13" t="s">
@@ -2355,9 +2403,9 @@
       <c r="E82" s="13"/>
     </row>
     <row r="83" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
+      <c r="A83" s="43"/>
       <c r="B83" s="13"/>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="27" t="s">
         <v>171</v>
       </c>
       <c r="D83" s="13" t="s">
@@ -2366,9 +2414,9 @@
       <c r="E83" s="13"/>
     </row>
     <row r="84" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
+      <c r="A84" s="43"/>
       <c r="B84" s="15"/>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="28" t="s">
         <v>172</v>
       </c>
       <c r="D84" s="15" t="s">
@@ -2377,7 +2425,7 @@
       <c r="E84" s="13"/>
     </row>
     <row r="85" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="12" t="s">
         <v>167</v>
       </c>
@@ -2390,7 +2438,7 @@
       <c r="E85" s="12"/>
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
+      <c r="A86" s="43"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13" t="s">
         <v>160</v>
@@ -2401,7 +2449,7 @@
       <c r="E86" s="13"/>
     </row>
     <row r="87" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
+      <c r="A87" s="43"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13" t="s">
         <v>163</v>
@@ -2412,7 +2460,7 @@
       <c r="E87" s="13"/>
     </row>
     <row r="88" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
+      <c r="A88" s="43"/>
       <c r="B88" s="15"/>
       <c r="C88" s="15" t="s">
         <v>165</v>
@@ -2423,7 +2471,7 @@
       <c r="E88" s="13"/>
     </row>
     <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="31"/>
+      <c r="A89" s="43"/>
       <c r="B89" s="12" t="s">
         <v>173</v>
       </c>
@@ -2436,7 +2484,7 @@
       <c r="E89" s="12"/>
     </row>
     <row r="90" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
+      <c r="A90" s="43"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13" t="s">
         <v>160</v>
@@ -2447,7 +2495,7 @@
       <c r="E90" s="13"/>
     </row>
     <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="31"/>
+      <c r="A91" s="43"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
         <v>163</v>
@@ -2458,7 +2506,7 @@
       <c r="E91" s="13"/>
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
+      <c r="A92" s="43"/>
       <c r="B92" s="15"/>
       <c r="C92" s="15" t="s">
         <v>174</v>
@@ -2469,7 +2517,7 @@
       <c r="E92" s="13"/>
     </row>
     <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A93" s="31"/>
+      <c r="A93" s="43"/>
       <c r="B93" s="12" t="s">
         <v>176</v>
       </c>
@@ -2482,7 +2530,7 @@
       <c r="E93" s="12"/>
     </row>
     <row r="94" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="31"/>
+      <c r="A94" s="43"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13" t="s">
         <v>160</v>
@@ -2493,7 +2541,7 @@
       <c r="E94" s="13"/>
     </row>
     <row r="95" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="31"/>
+      <c r="A95" s="43"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13" t="s">
         <v>163</v>
@@ -2504,7 +2552,7 @@
       <c r="E95" s="13"/>
     </row>
     <row r="96" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="31"/>
+      <c r="A96" s="43"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13" t="s">
         <v>174</v>
@@ -2515,7 +2563,7 @@
       <c r="E96" s="13"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="32"/>
+      <c r="A97" s="44"/>
       <c r="B97" s="15"/>
       <c r="C97" s="15" t="s">
         <v>177</v>
@@ -2526,7 +2574,7 @@
       <c r="E97" s="13"/>
     </row>
     <row r="98" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
+      <c r="A98" s="42" t="s">
         <v>228</v>
       </c>
       <c r="B98" s="12" t="s">
@@ -2541,7 +2589,7 @@
       <c r="E98" s="12"/>
     </row>
     <row r="99" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="31"/>
+      <c r="A99" s="43"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13" t="s">
         <v>1</v>
@@ -2552,7 +2600,7 @@
       <c r="E99" s="13"/>
     </row>
     <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="31"/>
+      <c r="A100" s="43"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13" t="s">
         <v>8</v>
@@ -2563,7 +2611,7 @@
       <c r="E100" s="13"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="31"/>
+      <c r="A101" s="43"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13" t="s">
         <v>10</v>
@@ -2574,7 +2622,7 @@
       <c r="E101" s="13"/>
     </row>
     <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="31"/>
+      <c r="A102" s="43"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13" t="s">
         <v>14</v>
@@ -2585,7 +2633,7 @@
       <c r="E102" s="13"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="31"/>
+      <c r="A103" s="43"/>
       <c r="B103" s="15"/>
       <c r="C103" s="15" t="s">
         <v>15</v>
@@ -2596,7 +2644,7 @@
       <c r="E103" s="13"/>
     </row>
     <row r="104" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
+      <c r="A104" s="43"/>
       <c r="B104" s="12" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2657,7 @@
       <c r="E104" s="12"/>
     </row>
     <row r="105" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="31"/>
+      <c r="A105" s="43"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13" t="s">
         <v>1</v>
@@ -2620,7 +2668,7 @@
       <c r="E105" s="13"/>
     </row>
     <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="31"/>
+      <c r="A106" s="43"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13" t="s">
         <v>12</v>
@@ -2631,7 +2679,7 @@
       <c r="E106" s="13"/>
     </row>
     <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="31"/>
+      <c r="A107" s="43"/>
       <c r="B107" s="15"/>
       <c r="C107" s="15" t="s">
         <v>13</v>
@@ -2642,7 +2690,7 @@
       <c r="E107" s="13"/>
     </row>
     <row r="108" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
+      <c r="A108" s="43"/>
       <c r="B108" s="12" t="s">
         <v>24</v>
       </c>
@@ -2655,7 +2703,7 @@
       <c r="E108" s="12"/>
     </row>
     <row r="109" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
+      <c r="A109" s="43"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13" t="s">
         <v>1</v>
@@ -2666,7 +2714,7 @@
       <c r="E109" s="13"/>
     </row>
     <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A110" s="31"/>
+      <c r="A110" s="43"/>
       <c r="B110" s="15"/>
       <c r="C110" s="15" t="s">
         <v>16</v>
@@ -2677,7 +2725,7 @@
       <c r="E110" s="13"/>
     </row>
     <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A111" s="31"/>
+      <c r="A111" s="43"/>
       <c r="B111" s="12" t="s">
         <v>26</v>
       </c>
@@ -2690,7 +2738,7 @@
       <c r="E111" s="12"/>
     </row>
     <row r="112" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
+      <c r="A112" s="43"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13" t="s">
         <v>1</v>
@@ -2701,7 +2749,7 @@
       <c r="E112" s="13"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="31"/>
+      <c r="A113" s="43"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13" t="s">
         <v>27</v>
@@ -2712,7 +2760,7 @@
       <c r="E113" s="13"/>
     </row>
     <row r="114" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="31"/>
+      <c r="A114" s="43"/>
       <c r="B114" s="15"/>
       <c r="C114" s="15" t="s">
         <v>28</v>
@@ -2723,7 +2771,7 @@
       <c r="E114" s="13"/>
     </row>
     <row r="115" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
+      <c r="A115" s="43"/>
       <c r="B115" s="12" t="s">
         <v>184</v>
       </c>
@@ -2736,7 +2784,7 @@
       <c r="E115" s="12"/>
     </row>
     <row r="116" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
+      <c r="A116" s="43"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13" t="s">
         <v>160</v>
@@ -2747,7 +2795,7 @@
       <c r="E116" s="13"/>
     </row>
     <row r="117" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="31"/>
+      <c r="A117" s="43"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13" t="s">
         <v>185</v>
@@ -2758,7 +2806,7 @@
       <c r="E117" s="13"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="31"/>
+      <c r="A118" s="43"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13" t="s">
         <v>187</v>
@@ -2769,7 +2817,7 @@
       <c r="E118" s="13"/>
     </row>
     <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
+      <c r="A119" s="43"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13" t="s">
         <v>189</v>
@@ -2780,7 +2828,7 @@
       <c r="E119" s="13"/>
     </row>
     <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A120" s="32"/>
+      <c r="A120" s="44"/>
       <c r="B120" s="15"/>
       <c r="C120" s="15" t="s">
         <v>191</v>
@@ -2791,7 +2839,7 @@
       <c r="E120" s="13"/>
     </row>
     <row r="121" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A121" s="30" t="s">
+      <c r="A121" s="42" t="s">
         <v>231</v>
       </c>
       <c r="B121" s="12" t="s">
@@ -2806,7 +2854,7 @@
       <c r="E121" s="12"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
+      <c r="A122" s="43"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13" t="s">
         <v>1</v>
@@ -2815,7 +2863,7 @@
       <c r="E122" s="13"/>
     </row>
     <row r="123" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="31"/>
+      <c r="A123" s="43"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13" t="s">
         <v>83</v>
@@ -2824,7 +2872,7 @@
       <c r="E123" s="13"/>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
+      <c r="A124" s="43"/>
       <c r="B124" s="15"/>
       <c r="C124" s="15" t="s">
         <v>232</v>
@@ -2833,59 +2881,59 @@
       <c r="E124" s="13"/>
     </row>
     <row r="125" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A125" s="31"/>
-      <c r="B125" s="40" t="s">
+      <c r="A125" s="43"/>
+      <c r="B125" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="C125" s="40" t="s">
+      <c r="C125" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="D125" s="40" t="s">
+      <c r="D125" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="E125" s="40"/>
+      <c r="E125" s="29"/>
     </row>
     <row r="126" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A126" s="31"/>
-      <c r="B126" s="40" t="s">
+      <c r="A126" s="43"/>
+      <c r="B126" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="C126" s="40" t="s">
+      <c r="C126" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D126" s="40" t="s">
+      <c r="D126" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E126" s="40"/>
+      <c r="E126" s="29"/>
     </row>
     <row r="127" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A127" s="31"/>
-      <c r="B127" s="40" t="s">
+      <c r="A127" s="43"/>
+      <c r="B127" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C127" s="40" t="s">
+      <c r="C127" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D127" s="40" t="s">
+      <c r="D127" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E127" s="40"/>
+      <c r="E127" s="29"/>
     </row>
     <row r="128" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A128" s="31"/>
-      <c r="B128" s="40" t="s">
+      <c r="A128" s="43"/>
+      <c r="B128" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C128" s="40" t="s">
+      <c r="C128" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="D128" s="40" t="s">
+      <c r="D128" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="E128" s="40"/>
+      <c r="E128" s="29"/>
     </row>
     <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="31"/>
+      <c r="A129" s="43"/>
       <c r="B129" s="12" t="s">
         <v>99</v>
       </c>
@@ -2898,7 +2946,7 @@
       <c r="E129" s="12"/>
     </row>
     <row r="130" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="31"/>
+      <c r="A130" s="43"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13" t="s">
         <v>102</v>
@@ -2909,7 +2957,7 @@
       <c r="E130" s="13"/>
     </row>
     <row r="131" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="31"/>
+      <c r="A131" s="43"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13" t="s">
         <v>104</v>
@@ -2920,7 +2968,7 @@
       <c r="E131" s="13"/>
     </row>
     <row r="132" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="31"/>
+      <c r="A132" s="43"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13" t="s">
         <v>106</v>
@@ -2931,7 +2979,7 @@
       <c r="E132" s="13"/>
     </row>
     <row r="133" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="31"/>
+      <c r="A133" s="43"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13" t="s">
         <v>108</v>
@@ -2942,7 +2990,7 @@
       <c r="E133" s="13"/>
     </row>
     <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="32"/>
+      <c r="A134" s="44"/>
       <c r="B134" s="15"/>
       <c r="C134" s="15" t="s">
         <v>110</v>
@@ -2953,7 +3001,7 @@
       <c r="E134" s="13"/>
     </row>
     <row r="135" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="37" t="s">
+      <c r="A135" s="32" t="s">
         <v>233</v>
       </c>
       <c r="B135" s="12" t="s">
@@ -2968,7 +3016,7 @@
       <c r="E135" s="12"/>
     </row>
     <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A136" s="38"/>
+      <c r="A136" s="33"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13" t="s">
         <v>149</v>
@@ -2979,7 +3027,7 @@
       <c r="E136" s="13"/>
     </row>
     <row r="137" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="38"/>
+      <c r="A137" s="33"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13" t="s">
         <v>151</v>
@@ -2990,7 +3038,7 @@
       <c r="E137" s="13"/>
     </row>
     <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="38"/>
+      <c r="A138" s="33"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13" t="s">
         <v>153</v>
@@ -3001,7 +3049,7 @@
       <c r="E138" s="13"/>
     </row>
     <row r="139" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="38"/>
+      <c r="A139" s="33"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13" t="s">
         <v>157</v>
@@ -3012,7 +3060,7 @@
       <c r="E139" s="13"/>
     </row>
     <row r="140" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="38"/>
+      <c r="A140" s="33"/>
       <c r="B140" s="15"/>
       <c r="C140" s="15" t="s">
         <v>155</v>
@@ -3023,7 +3071,7 @@
       <c r="E140" s="13"/>
     </row>
     <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="38"/>
+      <c r="A141" s="33"/>
       <c r="B141" s="12" t="s">
         <v>159</v>
       </c>
@@ -3036,7 +3084,7 @@
       <c r="E141" s="12"/>
     </row>
     <row r="142" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="38"/>
+      <c r="A142" s="33"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13" t="s">
         <v>160</v>
@@ -3047,7 +3095,7 @@
       <c r="E142" s="13"/>
     </row>
     <row r="143" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="38"/>
+      <c r="A143" s="33"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15" t="s">
         <v>161</v>
@@ -3058,7 +3106,7 @@
       <c r="E143" s="13"/>
     </row>
     <row r="144" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="38"/>
+      <c r="A144" s="33"/>
       <c r="B144" s="12" t="s">
         <v>179</v>
       </c>
@@ -3071,7 +3119,7 @@
       <c r="E144" s="12"/>
     </row>
     <row r="145" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="38"/>
+      <c r="A145" s="33"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13" t="s">
         <v>160</v>
@@ -3082,7 +3130,7 @@
       <c r="E145" s="13"/>
     </row>
     <row r="146" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A146" s="38"/>
+      <c r="A146" s="33"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13" t="s">
         <v>181</v>
@@ -3093,7 +3141,7 @@
       <c r="E146" s="13"/>
     </row>
     <row r="147" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A147" s="38"/>
+      <c r="A147" s="33"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13" t="s">
         <v>182</v>
@@ -3104,7 +3152,7 @@
       <c r="E147" s="13"/>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="38"/>
+      <c r="A148" s="33"/>
       <c r="B148" s="15"/>
       <c r="C148" s="15" t="s">
         <v>177</v>
@@ -3115,7 +3163,7 @@
       <c r="E148" s="13"/>
     </row>
     <row r="149" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="38"/>
+      <c r="A149" s="33"/>
       <c r="B149" s="12" t="s">
         <v>196</v>
       </c>
@@ -3128,7 +3176,7 @@
       <c r="E149" s="12"/>
     </row>
     <row r="150" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="38"/>
+      <c r="A150" s="33"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13" t="s">
         <v>160</v>
@@ -3139,7 +3187,7 @@
       <c r="E150" s="13"/>
     </row>
     <row r="151" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="38"/>
+      <c r="A151" s="33"/>
       <c r="B151" s="15"/>
       <c r="C151" s="15" t="s">
         <v>193</v>
@@ -3150,7 +3198,7 @@
       <c r="E151" s="13"/>
     </row>
     <row r="152" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="38"/>
+      <c r="A152" s="33"/>
       <c r="B152" s="12" t="s">
         <v>197</v>
       </c>
@@ -3163,7 +3211,7 @@
       <c r="E152" s="12"/>
     </row>
     <row r="153" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="38"/>
+      <c r="A153" s="33"/>
       <c r="B153" s="15"/>
       <c r="C153" s="15" t="s">
         <v>160</v>
@@ -3174,7 +3222,7 @@
       <c r="E153" s="13"/>
     </row>
     <row r="154" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A154" s="38"/>
+      <c r="A154" s="33"/>
       <c r="B154" s="12" t="s">
         <v>198</v>
       </c>
@@ -3187,7 +3235,7 @@
       <c r="E154" s="12"/>
     </row>
     <row r="155" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="38"/>
+      <c r="A155" s="33"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13" t="s">
         <v>160</v>
@@ -3198,7 +3246,7 @@
       <c r="E155" s="13"/>
     </row>
     <row r="156" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="38"/>
+      <c r="A156" s="33"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13" t="s">
         <v>199</v>
@@ -3209,7 +3257,7 @@
       <c r="E156" s="13"/>
     </row>
     <row r="157" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="38"/>
+      <c r="A157" s="33"/>
       <c r="B157" s="15"/>
       <c r="C157" s="15" t="s">
         <v>201</v>
@@ -3220,7 +3268,7 @@
       <c r="E157" s="13"/>
     </row>
     <row r="158" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="38"/>
+      <c r="A158" s="33"/>
       <c r="B158" s="12" t="s">
         <v>203</v>
       </c>
@@ -3233,7 +3281,7 @@
       <c r="E158" s="12"/>
     </row>
     <row r="159" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A159" s="38"/>
+      <c r="A159" s="33"/>
       <c r="B159" s="15"/>
       <c r="C159" s="15" t="s">
         <v>160</v>
@@ -3244,7 +3292,7 @@
       <c r="E159" s="13"/>
     </row>
     <row r="160" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="38"/>
+      <c r="A160" s="33"/>
       <c r="B160" s="12" t="s">
         <v>205</v>
       </c>
@@ -3255,7 +3303,7 @@
       <c r="E160" s="12"/>
     </row>
     <row r="161" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="38"/>
+      <c r="A161" s="33"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13" t="s">
         <v>126</v>
@@ -3266,7 +3314,7 @@
       <c r="E161" s="13"/>
     </row>
     <row r="162" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A162" s="38"/>
+      <c r="A162" s="33"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13" t="s">
         <v>206</v>
@@ -3277,7 +3325,7 @@
       <c r="E162" s="13"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="38"/>
+      <c r="A163" s="33"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13" t="s">
         <v>207</v>
@@ -3288,7 +3336,7 @@
       <c r="E163" s="13"/>
     </row>
     <row r="164" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="38"/>
+      <c r="A164" s="33"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13" t="s">
         <v>209</v>
@@ -3299,7 +3347,7 @@
       <c r="E164" s="13"/>
     </row>
     <row r="165" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="38"/>
+      <c r="A165" s="33"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13" t="s">
         <v>211</v>
@@ -3310,7 +3358,7 @@
       <c r="E165" s="13"/>
     </row>
     <row r="166" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="38"/>
+      <c r="A166" s="33"/>
       <c r="B166" s="15"/>
       <c r="C166" s="15" t="s">
         <v>214</v>
@@ -3321,7 +3369,7 @@
       <c r="E166" s="13"/>
     </row>
     <row r="167" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="38"/>
+      <c r="A167" s="33"/>
       <c r="B167" s="12" t="s">
         <v>67</v>
       </c>
@@ -3334,7 +3382,7 @@
       <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="38"/>
+      <c r="A168" s="33"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13" t="s">
         <v>1</v>
@@ -3345,7 +3393,7 @@
       <c r="E168" s="13"/>
     </row>
     <row r="169" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A169" s="38"/>
+      <c r="A169" s="33"/>
       <c r="B169" s="15"/>
       <c r="C169" s="15" t="s">
         <v>68</v>
@@ -3356,7 +3404,7 @@
       <c r="E169" s="13"/>
     </row>
     <row r="170" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="38"/>
+      <c r="A170" s="33"/>
       <c r="B170" s="12" t="s">
         <v>70</v>
       </c>
@@ -3369,7 +3417,7 @@
       <c r="E170" s="12"/>
     </row>
     <row r="171" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A171" s="38"/>
+      <c r="A171" s="33"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13" t="s">
         <v>1</v>
@@ -3380,7 +3428,7 @@
       <c r="E171" s="13"/>
     </row>
     <row r="172" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="38"/>
+      <c r="A172" s="33"/>
       <c r="B172" s="15"/>
       <c r="C172" s="15" t="s">
         <v>71</v>
@@ -3391,7 +3439,7 @@
       <c r="E172" s="13"/>
     </row>
     <row r="173" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="38"/>
+      <c r="A173" s="33"/>
       <c r="B173" s="12" t="s">
         <v>73</v>
       </c>
@@ -3404,7 +3452,7 @@
       <c r="E173" s="12"/>
     </row>
     <row r="174" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="38"/>
+      <c r="A174" s="33"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13" t="s">
         <v>1</v>
@@ -3415,7 +3463,7 @@
       <c r="E174" s="13"/>
     </row>
     <row r="175" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A175" s="38"/>
+      <c r="A175" s="33"/>
       <c r="B175" s="15"/>
       <c r="C175" s="15" t="s">
         <v>74</v>
@@ -3426,7 +3474,7 @@
       <c r="E175" s="13"/>
     </row>
     <row r="176" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="38"/>
+      <c r="A176" s="33"/>
       <c r="B176" s="12" t="s">
         <v>85</v>
       </c>
@@ -3439,7 +3487,7 @@
       <c r="E176" s="12"/>
     </row>
     <row r="177" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="38"/>
+      <c r="A177" s="33"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13" t="s">
         <v>1</v>
@@ -3450,7 +3498,7 @@
       <c r="E177" s="13"/>
     </row>
     <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="38"/>
+      <c r="A178" s="33"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13" t="s">
         <v>83</v>
@@ -3461,7 +3509,7 @@
       <c r="E178" s="13"/>
     </row>
     <row r="179" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A179" s="39"/>
+      <c r="A179" s="34"/>
       <c r="B179" s="15"/>
       <c r="C179" s="15" t="s">
         <v>86</v>
@@ -3473,6 +3521,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B74"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="B19:B24"/>
     <mergeCell ref="A135:A179"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="B1:B2"/>
@@ -3489,20 +3551,6 @@
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="B42:B44"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B18"/>
-    <mergeCell ref="B19:B24"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="B72:B74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="B62:B64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
